--- a/Sem12/SistVentas/Roles.xlsx
+++ b/Sem12/SistVentas/Roles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EGCC\USIL_TPC_2016_2_TT\Sem12\SistVentas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EGCC\USIL_TPC_2016_2_TM\Sem12\SistVentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
